--- a/biology/Médecine/Madeline_Nyamwanza-Makonese/Madeline_Nyamwanza-Makonese.xlsx
+++ b/biology/Médecine/Madeline_Nyamwanza-Makonese/Madeline_Nyamwanza-Makonese.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Madeline Nyamwanza-Makonese est la première femme médecin de nationalité zimbabwéenne, la première femme africaine à être diplômée de la faculté de médecine de l'université du Zimbabwe[1],[2], et la deuxième femme médecin africaine formée sur le continent[3], après l'Ougandaise Josephine Nambooze.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madeline Nyamwanza-Makonese est la première femme médecin de nationalité zimbabwéenne, la première femme africaine à être diplômée de la faculté de médecine de l'université du Zimbabwe et la deuxième femme médecin africaine formée sur le continent, après l'Ougandaise Josephine Nambooze.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Septième enfant d'une famille de neuf, elle est née à la mission St Augustine, à Penhalonga, où son père travaillait à la ferme de la mission[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Septième enfant d'une famille de neuf, elle est née à la mission St Augustine, à Penhalonga, où son père travaillait à la ferme de la mission.
 Madeline Nyamwanza-Makonese a fait ses études primaires et secondaires à la mission St Augustine. Elle est allée au lycée de Goromonzi, où elle a étudié les mathématiques, la chimie et la biologie. Elle a ensuite obtenu une bourse du gouvernement pour faire des études de médecine. Elle a fait son internat à l'hôpital de Mpilo et diplômée docteur en médecine en 1970 à l'université du Zimbabwe. Elle était la seule femme dans une classe de vingt-cinq étudiants[réf. souhaitée].
-En 2021, Madeline a partagé son expérience dans une interview avec le groupe First Ladies Africa[5].
-Madeline est mariée à Eben Makonese[6],[3].
+En 2021, Madeline a partagé son expérience dans une interview avec le groupe First Ladies Africa.
+Madeline est mariée à Eben Makonese,.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Madeline Nyamwanza-Makonese a été diplômée en 1970 de la faculté de médecine de l'université de Rhodésie, devenue depuis université du Zimbabw[7]. Elle a été la première femme formée à la médecine dans le pays[8]. En 2019, au congrès de la Medical Women's International Association, Madeline Nyamwanza-Makonese a témoigné de son expérience de lutte contre les discriminations envers les femmes noires dans les carrières médicales[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madeline Nyamwanza-Makonese a été diplômée en 1970 de la faculté de médecine de l'université de Rhodésie, devenue depuis université du Zimbabw. Elle a été la première femme formée à la médecine dans le pays. En 2019, au congrès de la Medical Women's International Association, Madeline Nyamwanza-Makonese a témoigné de son expérience de lutte contre les discriminations envers les femmes noires dans les carrières médicales.
 </t>
         </is>
       </c>
